--- a/room-control/IP Addresses.xlsx
+++ b/room-control/IP Addresses.xlsx
@@ -581,7 +581,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
